--- a/input/ai_mapping_stock.xlsx
+++ b/input/ai_mapping_stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buzzebees-my.sharepoint.com/personal/sarawut_s_buzzebees_com/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buzzebees-my.sharepoint.com/personal/waris_r_buzzebees_com/Documents/Projects/OCR/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{19499C53-3489-4912-A4B1-5BDB33F318DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BDB0EFF-CDA5-4419-A9D5-B6B8F670FE11}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{19499C53-3489-4912-A4B1-5BDB33F318DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6BF215-F155-43E9-B4A1-B26CE326DF05}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{2E69CF79-B589-4435-9E79-B24CA1AC90E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2E69CF79-B589-4435-9E79-B24CA1AC90E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,12 +1343,12 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -1932,9 +1932,9 @@
       <selection sqref="A1:AQ61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>95</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -9905,15 +9905,16 @@
   <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="93.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="59.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>208</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>132824</v>
       </c>
@@ -10142,7 +10143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>132825</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>132826</v>
       </c>
@@ -10368,7 +10369,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>132828</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>132830</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>132831</v>
       </c>
@@ -10707,7 +10708,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>132832</v>
       </c>
@@ -10820,7 +10821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>132855</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>132856</v>
       </c>
@@ -11046,7 +11047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>132857</v>
       </c>
@@ -11159,7 +11160,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>132861</v>
       </c>
@@ -11272,7 +11273,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>132863</v>
       </c>
@@ -11385,7 +11386,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>132864</v>
       </c>
@@ -11498,7 +11499,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>132865</v>
       </c>
@@ -11611,7 +11612,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>132868</v>
       </c>
@@ -11724,7 +11725,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>132871</v>
       </c>
@@ -11837,7 +11838,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>132880</v>
       </c>
@@ -11950,7 +11951,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>132882</v>
       </c>
@@ -12063,7 +12064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>132883</v>
       </c>
@@ -12176,7 +12177,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>132914</v>
       </c>
@@ -12289,7 +12290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>132917</v>
       </c>
@@ -12402,7 +12403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>132925</v>
       </c>
@@ -12515,7 +12516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>132926</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>132942</v>
       </c>
@@ -12741,7 +12742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>132944</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>132945</v>
       </c>
@@ -12967,7 +12968,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>132950</v>
       </c>
@@ -13080,7 +13081,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>134659</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>134798</v>
       </c>
@@ -13306,7 +13307,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>134799</v>
       </c>
@@ -13419,7 +13420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>134800</v>
       </c>
@@ -13532,7 +13533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>134802</v>
       </c>
@@ -13645,7 +13646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>134804</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>136985</v>
       </c>
@@ -13871,7 +13872,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>136986</v>
       </c>
@@ -13984,7 +13985,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>136988</v>
       </c>
@@ -14097,7 +14098,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>136989</v>
       </c>
@@ -14210,7 +14211,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>141693</v>
       </c>
@@ -14326,7 +14327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>147126</v>
       </c>
@@ -14439,7 +14440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>147127</v>
       </c>
@@ -14552,7 +14553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>147129</v>
       </c>
@@ -14665,7 +14666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>147131</v>
       </c>
@@ -14778,7 +14779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>150169</v>
       </c>
@@ -14891,7 +14892,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>150170</v>
       </c>
@@ -15004,7 +15005,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>154516</v>
       </c>
@@ -15117,7 +15118,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>154522</v>
       </c>
@@ -15230,7 +15231,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>164317</v>
       </c>
@@ -15343,7 +15344,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>164319</v>
       </c>
@@ -15456,7 +15457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>164574</v>
       </c>
@@ -15569,7 +15570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>164781</v>
       </c>
